--- a/output/0/tRNA-Arg-TCT-3-2.xlsx
+++ b/output/0/tRNA-Arg-TCT-3-2.xlsx
@@ -12,15 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
   <si>
     <t>chr11</t>
   </si>
   <si>
-    <t>59318773</t>
-  </si>
-  <si>
-    <t>59318796</t>
+    <t>59318462</t>
+  </si>
+  <si>
+    <t>59318485</t>
   </si>
   <si>
     <t>0</t>
@@ -29,7 +29,7 @@
     <t>+</t>
   </si>
   <si>
-    <t>59318793</t>
+    <t>59318482</t>
   </si>
   <si>
     <t>150,150,150</t>
@@ -38,28 +38,127 @@
     <t>255,0,0</t>
   </si>
   <si>
-    <t>TGGCGCAATGGATAGCGCAT</t>
+    <t>TTCCACTGGGGCTCGAACCC</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+  </si>
+  <si>
+    <t>38% (46)</t>
+  </si>
+  <si>
+    <t>33% (37)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Sequence is not unique in genome</t>
+  </si>
+  <si>
+    <t>59318464</t>
+  </si>
+  <si>
+    <t>59318487</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>59318467</t>
+  </si>
+  <si>
+    <t>GTCCTGGGTTCGAGCCCCAG</t>
   </si>
   <si>
     <t>TGG</t>
   </si>
   <si>
-    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
-  </si>
-  <si>
-    <t>75% (58)</t>
-  </si>
-  <si>
-    <t>69% (54)</t>
-  </si>
-  <si>
-    <t>32</t>
+    <t>86% (62)</t>
+  </si>
+  <si>
+    <t>97% (82)</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t>63</t>
   </si>
   <si>
-    <t>Sequence is not unique in genome</t>
+    <t>59318479</t>
+  </si>
+  <si>
+    <t>59318502</t>
+  </si>
+  <si>
+    <t>CTTTACACGCAGAAGGTCCT</t>
+  </si>
+  <si>
+    <t>GGG</t>
+  </si>
+  <si>
+    <t>53% (51)</t>
+  </si>
+  <si>
+    <t>37% (39)</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>59318480</t>
+  </si>
+  <si>
+    <t>59318503</t>
+  </si>
+  <si>
+    <t>59318483</t>
+  </si>
+  <si>
+    <t>GCTTTACACGCAGAAGGTCC</t>
+  </si>
+  <si>
+    <t>16% (36)</t>
+  </si>
+  <si>
+    <t>18% (29)</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>59318486</t>
+  </si>
+  <si>
+    <t>59318509</t>
+  </si>
+  <si>
+    <t>59318489</t>
+  </si>
+  <si>
+    <t>ACGTCTGCTTTACACGCAGA</t>
+  </si>
+  <si>
+    <t>89% (63)</t>
+  </si>
+  <si>
+    <t>41% (41)</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>60</t>
   </si>
 </sst>
 </file>
@@ -104,7 +203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -174,22 +273,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -201,25 +300,25 @@
         <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
         <v>10</v>
       </c>
       <c r="N2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="O2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="P2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="R2" t="s">
         <v>15</v>
@@ -233,22 +332,22 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -260,22 +359,22 @@
         <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="M3" t="s">
         <v>10</v>
       </c>
       <c r="N3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="P3" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="Q3" t="s">
         <v>14</v>
@@ -284,6 +383,124 @@
         <v>15</v>
       </c>
       <c r="S3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S5" t="s">
         <v>3</v>
       </c>
     </row>
